--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F12" s="3">
         <v>21900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>28400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>13100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>23700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>34600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>15800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>30200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-34600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-25400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-18200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-16900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-17900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-15800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-30200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-34500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-19800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-15500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-30200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-34700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-25700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-19800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-30200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,19 +1478,25 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-34800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-25700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-19800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-30200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-34800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-25700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-19800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-30200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-34800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-25700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-19800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-30200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-34800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-25700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-19800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-30200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>69400</v>
+      </c>
+      <c r="F41" s="3">
         <v>91000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>98500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>117300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>138600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>156400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>166800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>95400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>110800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>68400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>82100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>104200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,57 +2229,69 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1700</v>
       </c>
       <c r="M45" s="3">
         <v>1500</v>
       </c>
       <c r="N45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F46" s="3">
         <v>97800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>104000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>123900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>145200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>158800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>169500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>98000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>113100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>70700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>84200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>106200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>28700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,25 +2484,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2308,10 +2523,10 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,10 +2549,10 @@
         <v>26600</v>
       </c>
       <c r="E49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="F49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="G49" s="3">
         <v>21600</v>
@@ -2355,16 +2576,22 @@
         <v>21600</v>
       </c>
       <c r="N49" s="3">
+        <v>21600</v>
+      </c>
+      <c r="O49" s="3">
+        <v>21600</v>
+      </c>
+      <c r="P49" s="3">
         <v>16600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,10 +2711,10 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2490,13 +2729,19 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>103900</v>
+      </c>
+      <c r="F54" s="3">
         <v>127100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>128500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>148500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>167400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>181000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>191600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>120100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>135200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>92900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>106100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>123100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>45500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,11 +2944,11 @@
       <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2689,11 +2956,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,111 +2974,129 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F59" s="3">
         <v>26200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>27700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F60" s="3">
         <v>26800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E61" s="3">
         <v>26500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>3100</v>
       </c>
       <c r="K62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F66" s="3">
         <v>57300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-251400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-226000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-193700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-170600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-151700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-117300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-99100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-83200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-65900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-50500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-37200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F76" s="3">
         <v>69800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>94300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>124700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>146900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>164800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>176600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>105300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>122700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>81600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>96300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>111500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>36000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-34800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-25700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-19800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-30200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3643,10 +4040,10 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-26900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-19600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-20900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-16700</v>
       </c>
       <c r="J89" s="3">
         <v>-14800</v>
       </c>
       <c r="K89" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M89" s="3">
         <v>-14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-17400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-28600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3969,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3987,19 +4428,25 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,28 +4539,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -4119,19 +4578,25 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>24900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>88100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>56900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>89000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-18800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>71400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>42500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-22100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>78700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E12" s="3">
         <v>17200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15900</v>
       </c>
       <c r="J12" s="3">
         <v>15900</v>
       </c>
       <c r="K12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L12" s="3">
         <v>14700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>13900</v>
       </c>
       <c r="N12" s="3">
         <v>13900</v>
       </c>
       <c r="O12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E17" s="3">
         <v>20900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>16900</v>
       </c>
       <c r="N17" s="3">
         <v>16900</v>
       </c>
       <c r="O17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="P17" s="3">
         <v>17900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-16900</v>
       </c>
       <c r="N18" s="3">
         <v>-16900</v>
       </c>
       <c r="O18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-17900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-30200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,99 +1288,105 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-17000</v>
       </c>
       <c r="N21" s="3">
         <v>-17000</v>
       </c>
       <c r="O21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="P21" s="3">
         <v>-17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-30200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,19 +1530,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E41" s="3">
         <v>62000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>156400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,63 +2325,69 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>2200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>800</v>
       </c>
       <c r="N43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O43" s="3">
         <v>700</v>
       </c>
       <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E46" s="3">
         <v>68400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>97800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>104000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>145200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>158800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>84200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2529,7 +2637,7 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2666,7 @@
         <v>26600</v>
       </c>
       <c r="G49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="H49" s="3">
         <v>21600</v>
@@ -2582,16 +2693,19 @@
         <v>21600</v>
       </c>
       <c r="P49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="Q49" s="3">
         <v>16600</v>
       </c>
       <c r="R49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="S49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,7 +2837,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2735,13 +2855,16 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E54" s="3">
         <v>97400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>148500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>167400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>181000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>191600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>135200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2950,8 +3084,8 @@
       <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,126 +3114,135 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E59" s="3">
         <v>23200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E61" s="3">
         <v>26400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>26500</v>
       </c>
       <c r="F61" s="3">
         <v>26500</v>
       </c>
       <c r="G61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3130,31 +3273,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E62" s="3">
         <v>9100</v>
       </c>
       <c r="F62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -3163,25 +3309,28 @@
         <v>3100</v>
       </c>
       <c r="M62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2900</v>
       </c>
       <c r="P62" s="3">
         <v>2900</v>
       </c>
       <c r="Q62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E66" s="3">
         <v>59300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-312700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-275000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-251400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-226000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-193700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-170600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E76" s="3">
         <v>38100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>164800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>176600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4046,7 +4245,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
         <v>-23200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4416,28 +4637,28 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>88100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>89000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
       </c>
       <c r="J101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
         <v>-21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>71400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>78700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E12" s="3">
         <v>15400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>15900</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
       </c>
       <c r="L12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="M12" s="3">
         <v>14700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>13900</v>
       </c>
       <c r="O12" s="3">
         <v>13900</v>
       </c>
       <c r="P12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>14000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
         <v>17600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>16900</v>
       </c>
       <c r="O17" s="3">
         <v>16900</v>
       </c>
       <c r="P17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>17900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-16900</v>
       </c>
       <c r="O18" s="3">
         <v>-16900</v>
       </c>
       <c r="P18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-30200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,105 +1322,111 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-18000</v>
       </c>
       <c r="F21" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-20500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-17000</v>
       </c>
       <c r="O21" s="3">
         <v>-17000</v>
       </c>
       <c r="P21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-30200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1533,19 +1579,22 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-30200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-30200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-30200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E41" s="3">
         <v>45000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>95400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,66 +2418,72 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>2200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>800</v>
       </c>
       <c r="N43" s="3">
         <v>800</v>
       </c>
       <c r="O43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
       <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E46" s="3">
         <v>50400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>74800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>97800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>104000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>123900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>145200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>158800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>169500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>113100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>70700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>106200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2703,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2640,7 +2748,7 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2669,7 +2780,7 @@
         <v>26600</v>
       </c>
       <c r="H49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="I49" s="3">
         <v>21600</v>
@@ -2696,16 +2807,19 @@
         <v>21600</v>
       </c>
       <c r="Q49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="R49" s="3">
         <v>16600</v>
       </c>
       <c r="S49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="T49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,7 +2960,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -2858,13 +2978,16 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E54" s="3">
         <v>79200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>103900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>167400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>191600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>120100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>135200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3087,8 +3221,8 @@
       <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E59" s="3">
         <v>19300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E60" s="3">
         <v>20000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,20 +3375,20 @@
         <v>26300</v>
       </c>
       <c r="E61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F61" s="3">
         <v>26400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>26500</v>
       </c>
       <c r="G61" s="3">
         <v>26500</v>
       </c>
       <c r="H61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,25 +3431,25 @@
         <v>9200</v>
       </c>
       <c r="E62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F62" s="3">
         <v>9100</v>
       </c>
       <c r="G62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3100</v>
       </c>
       <c r="L62" s="3">
         <v>3100</v>
@@ -3312,25 +3458,28 @@
         <v>3100</v>
       </c>
       <c r="N62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2900</v>
       </c>
       <c r="Q62" s="3">
         <v>2900</v>
       </c>
       <c r="R62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E66" s="3">
         <v>55500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-335800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-312700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-275000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-251400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-193700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-170600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-151700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E76" s="3">
         <v>23700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>124700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>164800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>176600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>105300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>122700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>81600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-30200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4248,7 +4447,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-18900</v>
       </c>
       <c r="F89" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-23200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-28600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4640,28 +4861,28 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1600</v>
       </c>
       <c r="F100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>88100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>89000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
       </c>
       <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17100</v>
       </c>
       <c r="F102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>71400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>42500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>78700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E12" s="3">
         <v>20100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>15900</v>
       </c>
       <c r="L12" s="3">
         <v>15900</v>
       </c>
       <c r="M12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="N12" s="3">
         <v>14700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>13900</v>
       </c>
       <c r="P12" s="3">
         <v>13900</v>
       </c>
       <c r="Q12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="R12" s="3">
         <v>14000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>16900</v>
       </c>
       <c r="P17" s="3">
         <v>16900</v>
       </c>
       <c r="Q17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="R17" s="3">
         <v>17900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-16900</v>
       </c>
       <c r="P18" s="3">
         <v>-16900</v>
       </c>
       <c r="Q18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="R18" s="3">
         <v>-17900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-30200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1355,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-17000</v>
       </c>
       <c r="P21" s="3">
         <v>-17000</v>
       </c>
       <c r="Q21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="R21" s="3">
         <v>-17300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-30200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1582,19 +1627,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-30200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2063,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-30200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-30200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E41" s="3">
         <v>50600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>156400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>68400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,69 +2510,75 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>2200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>800</v>
       </c>
       <c r="O43" s="3">
         <v>800</v>
       </c>
       <c r="P43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
       </c>
       <c r="R43" s="3">
+        <v>700</v>
+      </c>
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2633,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E46" s="3">
         <v>56300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>74800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>97800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>104000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>123900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>145200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>158800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>169500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>113100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>84200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>106200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,34 +2810,37 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2751,7 +2858,7 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2783,7 +2893,7 @@
         <v>26600</v>
       </c>
       <c r="I49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="J49" s="3">
         <v>21600</v>
@@ -2810,16 +2920,19 @@
         <v>21600</v>
       </c>
       <c r="R49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="S49" s="3">
         <v>16600</v>
       </c>
       <c r="T49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="U49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +3082,7 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -2981,13 +3100,16 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E54" s="3">
         <v>84900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>181000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>191600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>120100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>135200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>106100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3340,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3224,8 +3357,8 @@
       <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>600</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E60" s="3">
         <v>27300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,20 +3520,20 @@
         <v>26300</v>
       </c>
       <c r="F61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G61" s="3">
         <v>26400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>26500</v>
       </c>
       <c r="H61" s="3">
         <v>26500</v>
       </c>
       <c r="I61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3422,37 +3564,40 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E62" s="3">
         <v>9200</v>
       </c>
       <c r="F62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G62" s="3">
         <v>9100</v>
       </c>
       <c r="H62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3100</v>
       </c>
       <c r="M62" s="3">
         <v>3100</v>
@@ -3461,25 +3606,28 @@
         <v>3100</v>
       </c>
       <c r="O62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2900</v>
       </c>
       <c r="R62" s="3">
         <v>2900</v>
       </c>
       <c r="S62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E66" s="3">
         <v>62800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-352600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-335800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-312700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-295300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-275000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-251400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-193700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-170600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-117300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-99100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-65900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-50500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>124700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>164800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>176600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>105300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>122700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>81600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-30200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4648,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-28600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,8 +5071,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4864,28 +5084,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5023,46 +5252,49 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>20200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>88100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>89000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
       </c>
       <c r="L101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>71400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>42500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>78700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E12" s="3">
         <v>14800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>15900</v>
       </c>
       <c r="M12" s="3">
         <v>15900</v>
       </c>
       <c r="N12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="O12" s="3">
         <v>14700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>13900</v>
       </c>
       <c r="Q12" s="3">
         <v>13900</v>
       </c>
       <c r="R12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="S12" s="3">
         <v>14000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E17" s="3">
         <v>17600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>16900</v>
       </c>
       <c r="Q17" s="3">
         <v>16900</v>
       </c>
       <c r="R17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="S17" s="3">
         <v>17900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>30200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-16900</v>
       </c>
       <c r="Q18" s="3">
         <v>-16900</v>
       </c>
       <c r="R18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="S18" s="3">
         <v>-17900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-30200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,58 +1389,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-17000</v>
       </c>
       <c r="Q21" s="3">
         <v>-17000</v>
       </c>
       <c r="R21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S21" s="3">
         <v>-17300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-30200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-30200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1630,19 +1676,22 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-30200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2133,123 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-30200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-30200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E41" s="3">
         <v>31200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>156400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>104200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,13 +2603,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>2200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,58 +2620,61 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
       </c>
       <c r="P43" s="3">
         <v>800</v>
       </c>
       <c r="Q43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R43" s="3">
         <v>700</v>
       </c>
       <c r="S43" s="3">
+        <v>700</v>
+      </c>
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E46" s="3">
         <v>37000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>74800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>97800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>104000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>123900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>145200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>158800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>70700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>84200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>106200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,37 +2918,40 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -2861,7 +2969,7 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2896,7 +3007,7 @@
         <v>26600</v>
       </c>
       <c r="J49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="K49" s="3">
         <v>21600</v>
@@ -2923,16 +3034,19 @@
         <v>21600</v>
       </c>
       <c r="S49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="T49" s="3">
         <v>16600</v>
       </c>
       <c r="U49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="V49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3085,7 +3205,7 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3103,13 +3223,16 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E54" s="3">
         <v>65400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>128500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>167400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>181000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>191600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>135200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>123100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,7 +3477,7 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3360,8 +3494,8 @@
       <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>600</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,131 +3524,140 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="E61" s="3">
         <v>26300</v>
@@ -3523,20 +3666,20 @@
         <v>26300</v>
       </c>
       <c r="G61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H61" s="3">
         <v>26400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>26500</v>
       </c>
       <c r="I61" s="3">
         <v>26500</v>
       </c>
       <c r="J61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3567,40 +3710,43 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>9100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>9200</v>
       </c>
       <c r="F62" s="3">
         <v>9200</v>
       </c>
       <c r="G62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="H62" s="3">
         <v>9100</v>
       </c>
       <c r="I62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3100</v>
       </c>
       <c r="N62" s="3">
         <v>3100</v>
@@ -3609,25 +3755,28 @@
         <v>3100</v>
       </c>
       <c r="P62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2900</v>
       </c>
       <c r="S62" s="3">
         <v>2900</v>
       </c>
       <c r="T62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U62" s="3">
         <v>2800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E66" s="3">
         <v>57100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-352600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-335800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-312700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-295300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-275000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-251400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-226000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-193700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-170600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-151700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-117300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-83200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-65900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-50500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-37200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E76" s="3">
         <v>8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>146900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>164800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>176600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>105300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>122700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>81600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>96300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-30200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,7 +4850,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-28600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5074,8 +5295,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5087,28 +5308,28 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5255,46 +5485,49 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>88100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>89000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-300</v>
       </c>
       <c r="M101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>71400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>42500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>78700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-28800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>15900</v>
       </c>
       <c r="N12" s="3">
         <v>15900</v>
       </c>
       <c r="O12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="P12" s="3">
         <v>14700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>13900</v>
       </c>
       <c r="R12" s="3">
         <v>13900</v>
       </c>
       <c r="S12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="T12" s="3">
         <v>14000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E17" s="3">
         <v>19700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>16900</v>
       </c>
       <c r="R17" s="3">
         <v>16900</v>
       </c>
       <c r="S17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="T17" s="3">
         <v>17900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-16900</v>
       </c>
       <c r="R18" s="3">
         <v>-16900</v>
       </c>
       <c r="S18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="T18" s="3">
         <v>-17900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-30200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-17000</v>
       </c>
       <c r="R21" s="3">
         <v>-17000</v>
       </c>
       <c r="S21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="T21" s="3">
         <v>-17300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-30200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-30200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1679,19 +1725,22 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-30200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-30200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-30200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E41" s="3">
         <v>68000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>156400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>104200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,75 +2696,81 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
       </c>
       <c r="R43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S43" s="3">
         <v>700</v>
       </c>
       <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E46" s="3">
         <v>73000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>56300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>68400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>74800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>97800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>104000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>123900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>145200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>158800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>169500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>98000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>70700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>84200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>106200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,40 +3026,43 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -2972,7 +3080,7 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3010,7 +3121,7 @@
         <v>26600</v>
       </c>
       <c r="K49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="L49" s="3">
         <v>21600</v>
@@ -3037,16 +3148,19 @@
         <v>21600</v>
       </c>
       <c r="T49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="U49" s="3">
         <v>16600</v>
       </c>
       <c r="V49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="W49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3208,7 +3328,7 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3226,13 +3346,16 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E54" s="3">
         <v>101300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>148500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>167400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>181000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>191600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>120100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>135200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>123100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,7 +3614,7 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3497,8 +3631,8 @@
       <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>600</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
         <v>16300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
         <v>17000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>26100</v>
       </c>
       <c r="E61" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F61" s="3">
         <v>26300</v>
@@ -3669,20 +3812,20 @@
         <v>26300</v>
       </c>
       <c r="H61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="I61" s="3">
         <v>26400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>26500</v>
       </c>
       <c r="J61" s="3">
         <v>26500</v>
       </c>
       <c r="K61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3713,43 +3856,46 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>9200</v>
       </c>
       <c r="G62" s="3">
         <v>9200</v>
       </c>
       <c r="H62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I62" s="3">
         <v>9100</v>
       </c>
       <c r="J62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3100</v>
       </c>
       <c r="O62" s="3">
         <v>3100</v>
@@ -3758,25 +3904,28 @@
         <v>3100</v>
       </c>
       <c r="Q62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R62" s="3">
         <v>3200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>2900</v>
       </c>
       <c r="T62" s="3">
         <v>2900</v>
       </c>
       <c r="U62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V62" s="3">
         <v>2800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E66" s="3">
         <v>51800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-371000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-352600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-335800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-312700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-295300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-275000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-251400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-226000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-193700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-170600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-151700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-117300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-50500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-37200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>124700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>146900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>164800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>176600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>105300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>122700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>81600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>96300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>111500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-30200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,13 +5018,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4853,7 +5052,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-28600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5311,28 +5532,28 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5488,46 +5718,49 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>58400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>88100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>89000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-300</v>
       </c>
       <c r="N101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>36800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>71400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>42500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>78700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-28800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>20100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>15900</v>
       </c>
       <c r="O12" s="3">
         <v>15900</v>
       </c>
       <c r="P12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>14700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>13900</v>
       </c>
       <c r="S12" s="3">
         <v>13900</v>
       </c>
       <c r="T12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="U12" s="3">
         <v>14000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E17" s="3">
         <v>18400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>16900</v>
       </c>
       <c r="S17" s="3">
         <v>16900</v>
       </c>
       <c r="T17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="U17" s="3">
         <v>17900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>1500</v>
       </c>
       <c r="E18" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-16900</v>
       </c>
       <c r="S18" s="3">
         <v>-16900</v>
       </c>
       <c r="T18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="U18" s="3">
         <v>-17900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-30200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1000</v>
       </c>
       <c r="E21" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-34500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-17000</v>
       </c>
       <c r="S21" s="3">
         <v>-17000</v>
       </c>
       <c r="T21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="U21" s="3">
         <v>-17300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-30200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1728,19 +1774,22 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-30200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-30200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>700</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-30200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-30200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E41" s="3">
         <v>58900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>156400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>166800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>95400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>82100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>104200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2699,78 +2789,84 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>2200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>800</v>
       </c>
       <c r="R43" s="3">
         <v>800</v>
       </c>
       <c r="S43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
       <c r="U43" s="3">
+        <v>700</v>
+      </c>
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E46" s="3">
         <v>67400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>68400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>74800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>97800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>104000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>123900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>145200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>158800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>169500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>98000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>70700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>84200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>106200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,43 +3134,46 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -3083,7 +3191,7 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>24500</v>
       </c>
       <c r="E49" s="3">
         <v>26600</v>
@@ -3124,7 +3235,7 @@
         <v>26600</v>
       </c>
       <c r="L49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="M49" s="3">
         <v>21600</v>
@@ -3151,16 +3262,19 @@
         <v>21600</v>
       </c>
       <c r="U49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="V49" s="3">
         <v>16600</v>
       </c>
       <c r="W49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="X49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3331,7 +3451,7 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3349,13 +3469,16 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E54" s="3">
         <v>95200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>101300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>79200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>128500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>148500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>167400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>181000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>191600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>120100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>135200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>123100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,7 +3751,7 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3634,8 +3768,8 @@
       <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>600</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,149 +3798,158 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E60" s="3">
         <v>18500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="E61" s="3">
         <v>26100</v>
       </c>
       <c r="F61" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="G61" s="3">
         <v>26300</v>
@@ -3815,20 +3958,20 @@
         <v>26300</v>
       </c>
       <c r="I61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J61" s="3">
         <v>26400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>26500</v>
       </c>
       <c r="K61" s="3">
         <v>26500</v>
       </c>
       <c r="L61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3859,46 +4002,49 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>9000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9200</v>
       </c>
       <c r="H62" s="3">
         <v>9200</v>
       </c>
       <c r="I62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="J62" s="3">
         <v>9100</v>
       </c>
       <c r="K62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3100</v>
       </c>
       <c r="P62" s="3">
         <v>3100</v>
@@ -3907,25 +4053,28 @@
         <v>3100</v>
       </c>
       <c r="R62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S62" s="3">
         <v>3200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2800</v>
-      </c>
-      <c r="T62" s="3">
-        <v>2900</v>
       </c>
       <c r="U62" s="3">
         <v>2900</v>
       </c>
       <c r="V62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W62" s="3">
         <v>2800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E66" s="3">
         <v>53600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>59300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-386700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-389300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-371000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-352600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-335800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-312700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-295300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-275000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-251400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-226000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-193700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-170600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-151700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-117300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-99100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-83200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-65900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-50500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-37200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E76" s="3">
         <v>41600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>124700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>146900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>164800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>176600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>105300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>122700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>81600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>96300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>111500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-30200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,16 +5217,17 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5055,7 +5254,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-28600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5535,28 +5756,28 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5721,46 +5951,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>58400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>88100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>89000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-300</v>
       </c>
       <c r="O101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>71400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>78700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-28800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,116 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>20100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
         <v>11500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>15900</v>
       </c>
       <c r="P12" s="3">
         <v>15900</v>
       </c>
       <c r="Q12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="R12" s="3">
         <v>14700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>13900</v>
       </c>
       <c r="T12" s="3">
         <v>13900</v>
       </c>
       <c r="U12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="V12" s="3">
         <v>14000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>16900</v>
       </c>
       <c r="T17" s="3">
         <v>16900</v>
       </c>
       <c r="U17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="V17" s="3">
         <v>17900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>30200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-16900</v>
       </c>
       <c r="T18" s="3">
         <v>-16900</v>
       </c>
       <c r="U18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="V18" s="3">
         <v>-17900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-30200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-700</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
       </c>
       <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-27400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-17000</v>
       </c>
       <c r="T21" s="3">
         <v>-17000</v>
       </c>
       <c r="U21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="V21" s="3">
         <v>-17300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-15500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-30200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,81 +1691,87 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-30200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1777,19 +1822,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-30200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-30200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>700</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
       </c>
       <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-30200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-30200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>62900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>138600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>156400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>95400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>68400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>82100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>104200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,81 +2881,87 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>2200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>800</v>
       </c>
       <c r="S43" s="3">
         <v>800</v>
       </c>
       <c r="T43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U43" s="3">
         <v>700</v>
       </c>
       <c r="V43" s="3">
+        <v>700</v>
+      </c>
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E46" s="3">
         <v>72100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>68400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>74800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>97800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>104000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>145200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>158800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>169500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>98000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>70700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>84200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>106200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,46 +3241,49 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -3194,7 +3301,7 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,7 +3324,7 @@
         <v>24500</v>
       </c>
       <c r="E49" s="3">
-        <v>26600</v>
+        <v>24500</v>
       </c>
       <c r="F49" s="3">
         <v>26600</v>
@@ -3238,7 +3348,7 @@
         <v>26600</v>
       </c>
       <c r="M49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="N49" s="3">
         <v>21600</v>
@@ -3265,16 +3375,19 @@
         <v>21600</v>
       </c>
       <c r="V49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="W49" s="3">
         <v>16600</v>
       </c>
       <c r="X49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="Y49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3454,7 +3573,7 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -3472,13 +3591,16 @@
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>101300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>79200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>128500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>148500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>167400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>181000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>191600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>120100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>135200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>106100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>123100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>45500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3887,7 @@
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3771,8 +3904,8 @@
       <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>600</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E60" s="3">
         <v>18800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,13 +4088,13 @@
         <v>26000</v>
       </c>
       <c r="E61" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="F61" s="3">
         <v>26100</v>
       </c>
       <c r="G61" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="H61" s="3">
         <v>26300</v>
@@ -3961,20 +4103,20 @@
         <v>26300</v>
       </c>
       <c r="J61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K61" s="3">
         <v>26400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>26500</v>
       </c>
       <c r="L61" s="3">
         <v>26500</v>
       </c>
       <c r="M61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4005,49 +4147,52 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9200</v>
       </c>
       <c r="I62" s="3">
         <v>9200</v>
       </c>
       <c r="J62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="K62" s="3">
         <v>9100</v>
       </c>
       <c r="L62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3100</v>
       </c>
       <c r="Q62" s="3">
         <v>3100</v>
@@ -4056,25 +4201,28 @@
         <v>3100</v>
       </c>
       <c r="S62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T62" s="3">
         <v>3200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>2900</v>
       </c>
       <c r="V62" s="3">
         <v>2900</v>
       </c>
       <c r="W62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X62" s="3">
         <v>2800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E66" s="3">
         <v>53500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-404300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-386700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-389300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-371000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-352600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-335800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-312700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-295300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-275000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-251400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-193700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-170600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-151700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-134000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-117300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-99100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-83200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-65900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-50500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E76" s="3">
         <v>44200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>124700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>146900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>164800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>176600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>105300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>122700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>81600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>96300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>111500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-30200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,10 +5425,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5257,7 +5455,7 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-28600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5759,28 +5979,28 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,17 +6150,20 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>22200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5954,46 +6183,49 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>58400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>88100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>56900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>89000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-300</v>
       </c>
       <c r="P101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>36800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>71400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>78700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-28800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>20100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>11500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>14800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>20100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>28400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>20100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>15900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>14700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>16300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>13900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>13900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>14000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>13100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>23700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,31 +1180,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>19400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>23600</v>
       </c>
       <c r="J17" s="3">
         <v>17600</v>
       </c>
       <c r="K17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M17" s="3">
         <v>20900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>20300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>34600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>25400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>19900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>19000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>18200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>16900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>16900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>17900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>30200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-31400</v>
       </c>
       <c r="E18" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-18400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-19700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-23600</v>
       </c>
       <c r="J18" s="3">
         <v>-17600</v>
       </c>
       <c r="K18" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-20300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-26800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-34600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-18200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-20000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-16900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-16900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-17900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-15800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-32600</v>
       </c>
       <c r="E21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-18800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-19800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-21700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-20500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-27400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-34500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-25500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-18600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-19800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-17000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-17000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-17300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-15500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-24400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-18200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-21800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-27600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-34700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-25700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-18200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-19800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-17100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-17000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-17300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-15500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1774,10 +1866,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1825,19 +1917,25 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-21900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-34800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-25700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-18200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-19800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-17100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-17300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-15500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-21900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-34800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-25700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-18200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-19800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-17100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-17300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-15500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-21900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-27600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-34800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-25700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-18200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-19800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-17100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-17000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-17300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-15500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-21900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-27600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-34800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-25700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-18200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-19800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-17100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-17000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-17300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-15500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>62900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>58900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>68000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>45000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>69400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>91000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>98500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>117300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>138600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>156400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>166800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>95400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>110800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>68400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>82100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>104200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>23300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,84 +3064,96 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>2200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,150 +3223,168 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1700</v>
       </c>
       <c r="V45" s="3">
         <v>1500</v>
       </c>
       <c r="W45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F46" s="3">
         <v>63500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>72100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>67400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>73000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>37000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>56300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>50400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>68400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>74800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>97800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>104000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>123900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>145200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>158800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>169500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>98000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>113100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>70700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>84200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>106200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>28700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,52 +3454,58 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -3304,10 +3520,10 @@
         <v>300</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3315,22 +3531,28 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F49" s="3">
         <v>24500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>24500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>26600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>26600</v>
       </c>
       <c r="H49" s="3">
         <v>26600</v>
@@ -3351,10 +3573,10 @@
         <v>26600</v>
       </c>
       <c r="N49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="O49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="P49" s="3">
         <v>21600</v>
@@ -3378,16 +3600,22 @@
         <v>21600</v>
       </c>
       <c r="W49" s="3">
+        <v>21600</v>
+      </c>
+      <c r="X49" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Y49" s="3">
         <v>16600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>16600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,16 +3762,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3576,10 +3816,10 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -3594,13 +3834,19 @@
         <v>200</v>
       </c>
       <c r="X52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>89100</v>
+      </c>
+      <c r="F54" s="3">
         <v>89000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>97600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>101300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>84900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>79200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>97400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>103900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>127100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>128500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>148500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>167400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>181000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>191600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>120100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>135200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>92900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>106100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>123100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>45500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,16 +4128,22 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -3890,10 +4158,10 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -3907,11 +4175,11 @@
       <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3919,11 +4187,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3937,192 +4205,210 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F59" s="3">
         <v>22800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>26600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>26200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>27700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>16900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>8500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>8700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F60" s="3">
         <v>23500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>18500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>17000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>27300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>26800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>28300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F61" s="3">
         <v>26000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>26100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>26100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>26300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>26300</v>
       </c>
       <c r="J61" s="3">
         <v>26300</v>
       </c>
       <c r="K61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="M61" s="3">
         <v>26400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>26500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>26500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4436,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3100</v>
       </c>
       <c r="S62" s="3">
         <v>3100</v>
       </c>
       <c r="T62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V62" s="3">
         <v>3200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F66" s="3">
         <v>56700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>53500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>53600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>51800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>57100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>62800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>55500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>59300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>55000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>57300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>11600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-446500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-415500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-404300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-386700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-389300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-371000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-352600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-335800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-312700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-295300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-275000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-251400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-226000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-193700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-170600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-151700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-134000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-117300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-99100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-83200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-65900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-50500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-37200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F76" s="3">
         <v>32300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>44200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>22200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>38100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>49000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>69800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>94300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>124700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>146900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>164800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>176600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>105300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>122700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>81600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>96300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>111500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>36000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-21900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-27600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-34800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-25700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-18200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-19800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-17100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-17000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-17300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-15500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,13 +5826,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5458,10 +5856,10 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-18800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-23200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-26900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-19600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-20900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-17700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-16700</v>
       </c>
       <c r="S89" s="3">
         <v>-14800</v>
       </c>
       <c r="T89" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="V89" s="3">
         <v>-14200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-13600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-17400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-10600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-28600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5969,11 +6411,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5982,16 +6424,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6000,19 +6442,25 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,14 +6622,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>22200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6186,22 +6646,22 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -6213,19 +6673,25 @@
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X94" s="3">
         <v>-5200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>58400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>20200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>24900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>88100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>56900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>89000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>36800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-19400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-21300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-10400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>71400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-15400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>42500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-22100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>78700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-28800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-6300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>OBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>20100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>15900</v>
       </c>
       <c r="S12" s="3">
         <v>15900</v>
       </c>
       <c r="T12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="U12" s="3">
         <v>14700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>13900</v>
       </c>
       <c r="W12" s="3">
         <v>13900</v>
       </c>
       <c r="X12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="Y12" s="3">
         <v>14000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E14" s="3">
         <v>19400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>34000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>16900</v>
       </c>
       <c r="W17" s="3">
         <v>16900</v>
       </c>
       <c r="X17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="Y17" s="3">
         <v>17900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>30200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-16900</v>
       </c>
       <c r="W18" s="3">
         <v>-16900</v>
       </c>
       <c r="X18" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-15800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
       </c>
       <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-27400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-19800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-17000</v>
       </c>
       <c r="W21" s="3">
         <v>-17000</v>
       </c>
       <c r="X21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,90 +1820,96 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1872,7 +1918,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1923,19 +1969,22 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
       </c>
       <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-25700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-25700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>117300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>156400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>166800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>95400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>68400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>82100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>104200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>23300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3070,13 +3160,16 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>2200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,76 +3177,79 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
-      </c>
-      <c r="U43" s="3">
-        <v>800</v>
       </c>
       <c r="V43" s="3">
         <v>800</v>
       </c>
       <c r="W43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X43" s="3">
         <v>700</v>
       </c>
       <c r="Y43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,162 +3325,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>34400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E46" s="3">
         <v>48700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>63500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>97800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>104000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>123900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>145200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>158800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>169500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>98000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>113100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>70700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>84200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>106200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,55 +3565,58 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -3526,7 +3634,7 @@
         <v>300</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,16 +3657,16 @@
         <v>4500</v>
       </c>
       <c r="E49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F49" s="3">
         <v>23900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>24500</v>
       </c>
       <c r="G49" s="3">
         <v>24500</v>
       </c>
       <c r="H49" s="3">
-        <v>26600</v>
+        <v>24500</v>
       </c>
       <c r="I49" s="3">
         <v>26600</v>
@@ -3579,7 +3690,7 @@
         <v>26600</v>
       </c>
       <c r="P49" s="3">
-        <v>21600</v>
+        <v>26600</v>
       </c>
       <c r="Q49" s="3">
         <v>21600</v>
@@ -3606,16 +3717,19 @@
         <v>21600</v>
       </c>
       <c r="Y49" s="3">
-        <v>16600</v>
+        <v>21600</v>
       </c>
       <c r="Z49" s="3">
         <v>16600</v>
       </c>
       <c r="AA49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="AB49" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,19 +3885,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3822,7 +3942,7 @@
         <v>300</v>
       </c>
       <c r="T52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U52" s="3">
         <v>200</v>
@@ -3840,13 +3960,16 @@
         <v>200</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E54" s="3">
         <v>54200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>101300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>128500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>148500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>167400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>181000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>191600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>120100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>135200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>106100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>123100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>45500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>57400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,19 +4265,22 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -4164,7 +4298,7 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -4181,8 +4315,8 @@
       <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>600</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,185 +4345,194 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>15800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>32900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>26000</v>
       </c>
       <c r="G61" s="3">
         <v>26000</v>
       </c>
       <c r="H61" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="I61" s="3">
         <v>26100</v>
       </c>
       <c r="J61" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="K61" s="3">
         <v>26300</v>
@@ -4398,20 +4541,20 @@
         <v>26300</v>
       </c>
       <c r="M61" s="3">
+        <v>26300</v>
+      </c>
+      <c r="N61" s="3">
         <v>26400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>26500</v>
       </c>
       <c r="O61" s="3">
         <v>26500</v>
       </c>
       <c r="P61" s="3">
+        <v>26500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4442,58 +4585,61 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9200</v>
       </c>
       <c r="L62" s="3">
         <v>9200</v>
       </c>
       <c r="M62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="N62" s="3">
         <v>9100</v>
       </c>
       <c r="O62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3100</v>
       </c>
       <c r="T62" s="3">
         <v>3100</v>
@@ -4502,25 +4648,28 @@
         <v>3100</v>
       </c>
       <c r="V62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W62" s="3">
         <v>3200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>2900</v>
       </c>
       <c r="Y62" s="3">
         <v>2900</v>
       </c>
       <c r="Z62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA62" s="3">
         <v>2800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E66" s="3">
         <v>56300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-452900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-446500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-415500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-404300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-386700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-389300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-371000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-352600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-335800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-312700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-295300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-275000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-251400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-193700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-170600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-151700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-134000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-117300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-99100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-83200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-65900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-50500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-37200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>94300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>124700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>146900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>164800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>176600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>105300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>122700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>81600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>96300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>111500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-25700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5832,10 +6031,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5862,7 +6061,7 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-14800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-14200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-13600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-17400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-28600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6430,28 +6651,28 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,17 +6852,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>5700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>22200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6652,46 +6882,49 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>58400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>88100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>89000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-300</v>
       </c>
       <c r="S101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>71400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>42500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>78700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-28800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6300</v>
       </c>
     </row>
